--- a/Average/res1.xlsx
+++ b/Average/res1.xlsx
@@ -14,45 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>مبانی کامپیوتر</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>برنامه سازی پیشرفته</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ساختمان گسسته</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>زبان ماشین</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ساختمان داده</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>مدار الکتریکی</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>برنامه سازی پیشرفته</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>ساختمان گسسته</t>
-  </si>
-  <si>
-    <t>زبان ماشین</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>ساختمان داده</t>
-  </si>
-  <si>
-    <t>مدار الکتریکی</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>مدار منطقی</t>
   </si>
   <si>
-    <t>17</t>
+    <t>22</t>
   </si>
   <si>
     <t>ریاضی مهندسی</t>
@@ -61,43 +85,46 @@
     <t>معماری کامپیوتر</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20</t>
   </si>
   <si>
     <t>سیستم عامل</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>نظریه زبان و ماشین</t>
   </si>
   <si>
+    <t>محاسبات عددی</t>
+  </si>
+  <si>
+    <t>شبکه های کامپیوتری</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>محاسبات عددی</t>
-  </si>
-  <si>
-    <t>شبکه های کامپیوتری</t>
-  </si>
-  <si>
     <t>شیوه ارائه</t>
   </si>
   <si>
     <t>الکترونیک دیجیتال</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>انتقال داده</t>
   </si>
   <si>
     <t>کنترل خطی</t>
   </si>
   <si>
-    <t>20</t>
+    <t>7</t>
   </si>
   <si>
     <t>طراحی و پیاده سازی زبان</t>
@@ -462,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,302 +505,470 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
